--- a/biology/Botanique/Square_du_Tchad/Square_du_Tchad.xlsx
+++ b/biology/Botanique/Square_du_Tchad/Square_du_Tchad.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square du Tchad est un square du 16e arrondissement de Paris.
@@ -512,10 +524,12 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce square qui longe le boulevard périphérique est accessible par le 8, avenue du Général-Sarrail[1].
-Il est desservi par la ligne 10 à la station Porte d'Auteuil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce square qui longe le boulevard périphérique est accessible par le 8, avenue du Général-Sarrail.
+Il est desservi par la ligne 10 à la station Porte d'Auteuil.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il porte le nom de la république du Tchad, un pays d'Afrique centrale[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il porte le nom de la république du Tchad, un pays d'Afrique centrale.
 </t>
         </is>
       </c>
@@ -575,11 +591,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le square est créé en 1978[3]. Il est aménagé sur une dalle, sous laquelle est installé un supermarché. Il est planté de cerisiers à fleurs[1].
-Un terrain de sport, des agrès, une aire de jeux et deux tables de pique-nique y sont installés[1].
-Il est notamment fréquenté par les élèves du lycée Jean-de-la-Fontaine et du lycée Claude-Bernard voisins[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square est créé en 1978. Il est aménagé sur une dalle, sous laquelle est installé un supermarché. Il est planté de cerisiers à fleurs.
+Un terrain de sport, des agrès, une aire de jeux et deux tables de pique-nique y sont installés.
+Il est notamment fréquenté par les élèves du lycée Jean-de-la-Fontaine et du lycée Claude-Bernard voisins.
 			Agrès.
 			Fleurs.
 </t>
